--- a/Experimento2/Laboratorio de Electronica Analógica.xlsx
+++ b/Experimento2/Laboratorio de Electronica Analógica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rex/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d4v1d\Desktop\LabAnalogicaGraficas\GIT\Laboratorio_Electronica_Analogica\Experimento2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1EDCA-6181-9D46-9BA6-F2E2A5911E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71723399-EF3C-4153-A8AE-0AEFF9236A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{780E1F5D-033D-4143-B95C-BD9CFB1DEE27}"/>
+    <workbookView xWindow="870" yWindow="9180" windowWidth="21600" windowHeight="6000" activeTab="1" xr2:uid="{780E1F5D-033D-4143-B95C-BD9CFB1DEE27}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimento 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>vf</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>Scope 119</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -385,11 +388,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +413,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -738,7 +741,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1065,7 +1068,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1402,7 +1405,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1740,7 +1743,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2044,7 +2047,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2349,7 +2352,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2656,7 +2659,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6603,7 +6606,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6905,14 +6908,14 @@
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -6920,12 +6923,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>0.45</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>3.0947272727272732E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>9.2457575757575757E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>2.5369393939393941E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>0.6</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>7.327272727272727E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0.65</v>
       </c>
@@ -7191,7 +7194,7 @@
         <v>1.9133333333333333E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>0.7</v>
       </c>
@@ -7238,7 +7241,7 @@
         <v>4.7769696969696971E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>0.75</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>1.099E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>0.8</v>
       </c>
@@ -7332,12 +7335,12 @@
         <v>2.2907575757575759E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>5</v>
       </c>
@@ -7415,7 +7418,7 @@
         <v>4.002E-9</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -7462,7 +7465,7 @@
         <v>5.1149999999999998E-9</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>15</v>
       </c>
@@ -7509,7 +7512,7 @@
         <v>6.1170000000000003E-9</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -7522,70 +7525,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52119BB-0D04-7345-A8DD-30782BE70CA4}">
-  <dimension ref="B6:Y72"/>
+  <dimension ref="A6:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L6" s="6" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L7" s="7" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L8" s="7" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -7598,20 +7604,23 @@
       <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>7.0720000000000001</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
         <v>7.6959999999999997</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>0.14879999999999999</v>
       </c>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -7625,7 +7634,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -7633,7 +7645,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -7641,7 +7656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -7649,7 +7664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -7660,24 +7675,24 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="X16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="L17" s="6" t="s">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6" t="s">
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>85</v>
       </c>
@@ -7687,22 +7702,22 @@
       <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="X18" t="s">
@@ -7712,26 +7727,26 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="X19" t="s">
@@ -7741,23 +7756,23 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="L20" s="7">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L20" s="6">
         <v>7.0720000000000001</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6">
         <v>2.85</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <v>7.585</v>
       </c>
       <c r="P20" s="5">
         <v>6.658E-2</v>
       </c>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>35</v>
       </c>
@@ -7771,7 +7786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -7785,7 +7800,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="O23">
         <v>7.54</v>
       </c>
@@ -7793,7 +7808,7 @@
         <v>0.13669999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -7801,12 +7816,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -7814,7 +7829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>42</v>
       </c>
@@ -7822,7 +7837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>44</v>
       </c>
@@ -7836,7 +7851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -7844,7 +7859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>57</v>
       </c>
@@ -7855,7 +7870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>58</v>
       </c>
@@ -7866,7 +7881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>75</v>
       </c>
@@ -7880,7 +7895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>76</v>
       </c>
@@ -7888,7 +7903,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>77</v>
       </c>
@@ -7902,7 +7917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>78</v>
       </c>
@@ -7910,7 +7925,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>79</v>
       </c>
@@ -7924,7 +7939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>80</v>
       </c>
@@ -7932,7 +7947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>81</v>
       </c>
@@ -7946,7 +7961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>82</v>
       </c>
@@ -7960,7 +7975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>84</v>
       </c>
@@ -7968,7 +7983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>85</v>
       </c>
@@ -7982,7 +7997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>86</v>
       </c>
@@ -7993,7 +8008,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>87</v>
       </c>
@@ -8007,7 +8022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>88</v>
       </c>
@@ -8015,7 +8030,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>89</v>
       </c>
@@ -8029,7 +8044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>90</v>
       </c>
@@ -8037,14 +8052,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>91</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="7">
         <v>107</v>
       </c>
       <c r="R51" t="s">
@@ -8054,20 +8069,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>92</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q52" s="7">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q53">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q54">
         <v>110</v>
       </c>
@@ -8075,7 +8090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>57</v>
       </c>
@@ -8089,7 +8104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>59</v>
       </c>
@@ -8097,7 +8112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>64</v>
       </c>
@@ -8111,7 +8126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>63</v>
       </c>
@@ -8119,7 +8134,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>65</v>
       </c>
@@ -8127,12 +8142,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>67</v>
       </c>
@@ -8140,12 +8155,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>69</v>
       </c>
@@ -8153,12 +8168,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>71</v>
       </c>
@@ -8169,12 +8184,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>74</v>
       </c>
@@ -8182,12 +8197,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>76</v>
       </c>
@@ -8195,12 +8210,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>78</v>
       </c>
@@ -8221,9 +8236,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8385,26 +8403,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F727651D-AE10-4FB1-A410-D3DAF16419A6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE36113-C2DF-483C-81EB-AB3E1EF0A162}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9d8d481b-b2d8-4ad2-9780-2aafe690507c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8428,9 +8435,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE36113-C2DF-483C-81EB-AB3E1EF0A162}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F727651D-AE10-4FB1-A410-D3DAF16419A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9d8d481b-b2d8-4ad2-9780-2aafe690507c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Experimento2/Laboratorio de Electronica Analógica.xlsx
+++ b/Experimento2/Laboratorio de Electronica Analógica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d4v1d\Desktop\LabAnalogicaGraficas\GIT\Laboratorio_Electronica_Analogica\Experimento2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71723399-EF3C-4153-A8AE-0AEFF9236A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E4724-3FEA-4AA1-A37B-ADBDAECA4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="9180" windowWidth="21600" windowHeight="6000" activeTab="1" xr2:uid="{780E1F5D-033D-4143-B95C-BD9CFB1DEE27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{780E1F5D-033D-4143-B95C-BD9CFB1DEE27}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimento 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>vf</t>
   </si>
@@ -7527,8 +7527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52119BB-0D04-7345-A8DD-30782BE70CA4}">
   <dimension ref="A6:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7657,6 +7657,9 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -7665,6 +7668,9 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -7680,7 +7686,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L17" s="8" t="s">
         <v>15</v>
       </c>
@@ -7692,7 +7698,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>85</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>34</v>
       </c>
@@ -7756,7 +7762,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L20" s="6">
         <v>7.0720000000000001</v>
       </c>
@@ -7772,7 +7778,7 @@
       </c>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>35</v>
       </c>
@@ -7786,7 +7792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O23">
         <v>7.54</v>
       </c>
@@ -7808,7 +7814,10 @@
         <v>0.13669999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -7816,12 +7825,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -7829,7 +7844,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
@@ -7837,7 +7855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>44</v>
       </c>
@@ -7851,7 +7869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -8030,7 +8048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>89</v>
       </c>
@@ -8044,7 +8062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>90</v>
       </c>
@@ -8052,7 +8070,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>91</v>
       </c>
@@ -8069,7 +8087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>92</v>
       </c>
@@ -8077,12 +8095,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q53">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q54">
         <v>110</v>
       </c>
@@ -8090,7 +8108,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>57</v>
       </c>
@@ -8104,7 +8122,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>59</v>
       </c>
@@ -8112,7 +8130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>64</v>
       </c>
@@ -8126,7 +8144,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>63</v>
       </c>
@@ -8134,7 +8152,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
       <c r="C60" t="s">
         <v>65</v>
       </c>
@@ -8142,12 +8163,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
       <c r="C61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
       <c r="C62" t="s">
         <v>67</v>
       </c>
@@ -8155,12 +8182,18 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
       <c r="C63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
       <c r="C64" t="s">
         <v>69</v>
       </c>
@@ -8168,12 +8201,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
       <c r="C65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
@@ -8184,12 +8223,18 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
       <c r="C67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
       <c r="C68" t="s">
         <v>74</v>
       </c>
@@ -8197,12 +8242,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
       <c r="C69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
       <c r="C70" t="s">
         <v>76</v>
       </c>
@@ -8210,12 +8261,18 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
       <c r="C71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
       <c r="C72" t="s">
         <v>78</v>
       </c>
@@ -8236,12 +8293,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8403,15 +8457,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE36113-C2DF-483C-81EB-AB3E1EF0A162}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F727651D-AE10-4FB1-A410-D3DAF16419A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9d8d481b-b2d8-4ad2-9780-2aafe690507c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8435,17 +8500,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F727651D-AE10-4FB1-A410-D3DAF16419A6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE36113-C2DF-483C-81EB-AB3E1EF0A162}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9d8d481b-b2d8-4ad2-9780-2aafe690507c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Experimento2/Laboratorio de Electronica Analógica.xlsx
+++ b/Experimento2/Laboratorio de Electronica Analógica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d4v1d\Desktop\LabAnalogicaGraficas\GIT\Laboratorio_Electronica_Analogica\Experimento2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E4724-3FEA-4AA1-A37B-ADBDAECA4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF1058D-E240-4FCA-99C2-02CB4FFC0B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{780E1F5D-033D-4143-B95C-BD9CFB1DEE27}"/>
+    <workbookView xWindow="525" yWindow="9345" windowWidth="21600" windowHeight="6000" activeTab="1" xr2:uid="{780E1F5D-033D-4143-B95C-BD9CFB1DEE27}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimento 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="95">
   <si>
     <t>vf</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Teorico</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -7527,13 +7536,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52119BB-0D04-7345-A8DD-30782BE70CA4}">
   <dimension ref="A6:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -7604,18 +7615,31 @@
       <c r="I9" t="s">
         <v>21</v>
       </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
       <c r="L9" s="6">
-        <v>7.0720000000000001</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+        <f>7.072*(2)^(1/2)</f>
+        <v>10.001318313102528</v>
+      </c>
+      <c r="M9" s="6">
+        <f>L9-0.7</f>
+        <v>9.301318313102529</v>
+      </c>
+      <c r="N9" s="6">
+        <v>9.2012</v>
+      </c>
       <c r="O9" s="6">
-        <v>7.6959999999999997</v>
+        <f>(1.8*7.696)*2^(1/2)</f>
+        <v>19.590817636842011</v>
       </c>
       <c r="P9" s="6">
-        <v>0.14879999999999999</v>
-      </c>
-      <c r="Q9" s="6"/>
+        <f>2*1.7*0.1488*2^(1/2)</f>
+        <v>0.71547892547579617</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>115</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7633,6 +7657,29 @@
       <c r="I10" t="s">
         <v>21</v>
       </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="M10" s="1">
+        <f>L10-0.7</f>
+        <v>9.24</v>
+      </c>
+      <c r="N10" s="1">
+        <v>9.3290000000000006</v>
+      </c>
+      <c r="O10" s="1">
+        <v>19.652999999999999</v>
+      </c>
+      <c r="P10" s="1">
+        <f>2*0.38258</f>
+        <v>0.76515999999999995</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -7643,6 +7690,33 @@
       </c>
       <c r="C11" t="s">
         <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11">
+        <f>(ABS(L10-L9)/L10)*100</f>
+        <v>0.61688443765119494</v>
+      </c>
+      <c r="M11">
+        <f>(ABS(M10-M9)/M10)*100</f>
+        <v>0.66361810717022485</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:Q11" si="0">(ABS(N10-N9)/N10)*100</f>
+        <v>1.3699217493836486</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.31640137972822063</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>6.4929001155580259</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666661</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -7763,20 +7837,32 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>92</v>
+      </c>
       <c r="L20" s="6">
-        <v>7.0720000000000001</v>
-      </c>
-      <c r="M20" s="6"/>
+        <f>7.072*2^(1/2)</f>
+        <v>10.001318313102528</v>
+      </c>
+      <c r="M20" s="6">
+        <f>+L20-0.7</f>
+        <v>9.301318313102529</v>
+      </c>
       <c r="N20" s="6">
-        <v>2.85</v>
+        <f>2.85*2*2^(1/2)</f>
+        <v>8.0610173055266419</v>
       </c>
       <c r="O20" s="6">
-        <v>7.585</v>
+        <f>1.8*7.585*2^(1/2)</f>
+        <v>19.308257767079869</v>
       </c>
       <c r="P20" s="5">
-        <v>6.658E-2</v>
-      </c>
-      <c r="Q20" s="6"/>
+        <f>0.26658*2^(1/2)</f>
+        <v>0.37700105145741969</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -7785,6 +7871,30 @@
       <c r="D21" t="s">
         <v>37</v>
       </c>
+      <c r="K21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1">
+        <f>-1.4+L21</f>
+        <v>8.6</v>
+      </c>
+      <c r="N21" s="1">
+        <f>6.344*2^(1/2)</f>
+        <v>8.9717708396949156</v>
+      </c>
+      <c r="O21" s="1">
+        <v>19.317</v>
+      </c>
+      <c r="P21" s="1">
+        <f>0.32156*1.2</f>
+        <v>0.38587199999999999</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>120</v>
+      </c>
       <c r="X21" t="s">
         <v>87</v>
       </c>
@@ -7796,22 +7906,38 @@
       <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="N22" t="s">
-        <v>31</v>
+      <c r="K22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22">
+        <f>(ABS(L21-L20)/L21)*100</f>
+        <v>1.318313102528279E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:Q22" si="1">(ABS(M21-M20)/M21)*100</f>
+        <v>8.154864105843366</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>10.151324085750321</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>4.5256680230527452E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>2.298935538878256</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="X22" t="s">
         <v>88</v>
       </c>
       <c r="Y22">
         <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O23">
-        <v>7.54</v>
-      </c>
-      <c r="P23">
-        <v>0.13669999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -7824,6 +7950,9 @@
       <c r="C25" t="s">
         <v>39</v>
       </c>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7831,6 +7960,12 @@
       </c>
       <c r="C26" t="s">
         <v>40</v>
+      </c>
+      <c r="O26">
+        <v>7.54</v>
+      </c>
+      <c r="P26">
+        <v>0.13669999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -8299,6 +8434,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100924258D6C0A3994A824047D96BD03F79" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="82813824566578b4ad8de90fd5c07f5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d8d481b-b2d8-4ad2-9780-2aafe690507c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="667bd56d5c3b277ccfbe47382052433f" ns3:_="">
     <xsd:import namespace="9d8d481b-b2d8-4ad2-9780-2aafe690507c"/>
@@ -8456,15 +8600,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F727651D-AE10-4FB1-A410-D3DAF16419A6}">
   <ds:schemaRefs>
@@ -8482,6 +8617,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE36113-C2DF-483C-81EB-AB3E1EF0A162}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B14D33B-DDE0-4EF2-B142-092F8D74C909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8497,12 +8640,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE36113-C2DF-483C-81EB-AB3E1EF0A162}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>